--- a/biology/Médecine/Traçabilité_agroalimentaire/Traçabilité_agroalimentaire.xlsx
+++ b/biology/Médecine/Traçabilité_agroalimentaire/Traçabilité_agroalimentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tra%C3%A7abilit%C3%A9_agroalimentaire</t>
+          <t>Traçabilité_agroalimentaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La traçabilité agroalimentaire est l'application des principes de traçabilité à la filière agroalimentaire, afin d'atteindre des objectifs de sécurité sanitaire des aliments.
 Elle vise à mieux qualifier les produits mis sur le marché, à une meilleure maîtrise des dangers et à abaisser les niveaux de risques. La traçabilité est, en effet, nécessaire pour remonter à la source d'un problème d'intoxication alimentaire ou d'une fraude.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tra%C3%A7abilit%C3%A9_agroalimentaire</t>
+          <t>Traçabilité_agroalimentaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le comité du Codex Alimentarius a défini et révisé la traçabilité/ retraçage des produits comme sui :
 « La traçabilité correspond à la capacité de suivre les
-déplacements d’un aliment parmi des stades précis de la production, de la transformation et de la distribution. »[1] (« de la fourche à la fourchette », pour l'Europe, via le paquet hygiène).
+déplacements d’un aliment parmi des stades précis de la production, de la transformation et de la distribution. » (« de la fourche à la fourchette », pour l'Europe, via le paquet hygiène).
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tra%C3%A7abilit%C3%A9_agroalimentaire</t>
+          <t>Traçabilité_agroalimentaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +561,15 @@
           <t>Systèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux grands types de systèmes coexistent :
 Conservation durant longtemps des données (avec le cas échéant des échantillons) sur la circulation ; à un échelon supérieur ou à un échelon inférieur à celui de la personne ou de l'entité considérée dans la filière.
 Transmission et stockage de données communes à tous les échelons de la distribution jusqu’à la vente finale, facilitée par les progrès de l'informatique (lecture automatique de code barre, QR code, etc.).
 Dans le deuxième cas, la technologie blockchain peut être utilisée afin de faciliter le partage des données entre les acteurs de la filière. Des start-up comme Crystalchain, Koust ou Tilkal proposent des plateformes établies sur cette technologie, ainsi que IBM Food Trust.
-Les cas particuliers du gibier, des champignons « sauvages » et du poisson pêché en mer ou en eau douce posent des problèmes particuliers, non encore complètement résolus, mais faisant l'objet de recommandations ou propositions[2].
+Les cas particuliers du gibier, des champignons « sauvages » et du poisson pêché en mer ou en eau douce posent des problèmes particuliers, non encore complètement résolus, mais faisant l'objet de recommandations ou propositions.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tra%C3%A7abilit%C3%A9_agroalimentaire</t>
+          <t>Traçabilité_agroalimentaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Législation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La CEE a produit depuis 1993 une série de réglementations imposant aux producteurs de denrées alimentaires de mettre en place des mesures visant à assurer un niveau de protection élevée de la sécurité alimentaire du consommateur ; ces règlements CEE s'appliquent aujourd'hui à l'ensemble des pays membres.
 En 1992, la Directive 1992/59/CEE du 29 juin 1992, ou Directive européenne pour la sécurité alimentaire générale, spécifie que la sécurité de tous les produits doit être garantie. Disposer d’un système pour le retrait des produits en rayon des points de vente doit également être prévu, ce qui était prévu en France depuis la loi n° 83-660 du 21 juillet 1983 relative à la sécurité des consommateurs. Ceci est aussi réglé dans la Directive 1992/59/CEE et implique une bonne traçabilité.
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tra%C3%A7abilit%C3%A9_agroalimentaire</t>
+          <t>Traçabilité_agroalimentaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Normes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Série ISO 22000 des normes sur la sécurité des denrées alimentaires :
 ISO 22000 Systèmes de management de la sécurité des denrées alimentaires -- Exigences pour tout organisme appartenant à la chaîne alimentaire
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tra%C3%A7abilit%C3%A9_agroalimentaire</t>
+          <t>Traçabilité_agroalimentaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,16 +673,53 @@
           <t>Enjeux du suivi de filières</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un contexte de mondialisation accélérée, il apparaît de plus en plus nécessaire d'introduire et d'appliquer des méthodes efficaces de traçabilité sur l'ensemble de la filière agroalimentaire, de la fourche à la fourchette en Europe, comme le veut le « paquet Hygiène », intégrant donc la traçabilité à partir du maillon amont (intrants dès le niveau semences en particulier).
-Identification des bovins
-À la suite de la crise de la vache folle, la France a redéfini en 1998, les critères d'identification pour répondre aux exigences européennes de traçabilité de la viande bovine et des produits à base de viande bovine. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Traçabilité_agroalimentaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tra%C3%A7abilit%C3%A9_agroalimentaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Enjeux du suivi de filières</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identification des bovins</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de la crise de la vache folle, la France a redéfini en 1998, les critères d'identification pour répondre aux exigences européennes de traçabilité de la viande bovine et des produits à base de viande bovine. 
 L'identification se fait par une boucle plastique installée par percement de chaque oreille, agréée, couleur saumon, avec 10 chiffres précédés du code pays (FR pour la France) matérialisés également par un code barre : 
 les 2 premiers chiffres correspondent au chiffre du département
 les 4 derniers chiffres (caractères gras, facilement lisibles) sont le numéro de travail,
 inscription de l'identification sur un registre tenu à la ferme, mentionnant toutes les naissances, entrées et sorties (vente, abattoir, équarrissage),
-enregistrement des informations relatives notamment aux détenteurs d'animaux, aux exploitations, aux animaux détenus, à leurs mouvements et à leur identification dans la base de données nationale d'identification (BDNI) et de traçage des bovins et de leurs produits[3].
+enregistrement des informations relatives notamment aux détenteurs d'animaux, aux exploitations, aux animaux détenus, à leurs mouvements et à leur identification dans la base de données nationale d'identification (BDNI) et de traçage des bovins et de leurs produits.
 L'éleveur doit identifier les bovins nés dans la ferme qu'il gère avant l'âge de 7 jours, et informer l'Établissement départemental d’élevage (EDE) avant sept jours de toute naissance entrée et sortie ou de la perte d'une boucle. L'EDE produit par bovin un passeport bovin avec références de l'élevage (numéro de cheptel) et de l'animal (date de naissance, origine, numéro...).
 Des contrôles sont réalisés par l'autorité vétérinaire.
 Depuis le début des années 2000 environ, une controverse concerne l'étiquetage, et donc la traçabilité des aliments ayant nourri les bêtes des filières laitières et viande, en particulier de manière que le consommateur puisse savoir si l'animal a consommé des OGM, et lesquels, en quelle quantité et durant combien de temps.
@@ -672,31 +729,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tra%C3%A7abilit%C3%A9_agroalimentaire</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Traçabilité_agroalimentaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tra%C3%A7abilit%C3%A9_agroalimentaire</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>ITT (intégrateur temps température)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ITT permettent le suivi du couple temps-température, et sont particulièrement présents dans l'agro-alimentaire et dans la santé. Différentes technologies d'intégration temps / température sont disponibles et ont pour but de refléter de façon plus ou moins précise l'état de fraîcheur et les conditions de conservation des aliments frais. Souvent disponibles sous le format d'étiquettes, ces indicateurs permettent de s'assurer de la fraîcheur des produits sur lesquels ils auront été apposés.
 Il existe également dans le commerce un appareil à trois zones (verte-orange-rouge), appelé chrono-thermomètre, qui indique visuellement non seulement une hausse de la température, mais également sa durée, ce qui permet de vérifier au premier coup d'œil la présence d'un germe pathogène dans les aliments conservés.
